--- a/日运语句数据库.xlsx
+++ b/日运语句数据库.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\py\mypy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="9465"/>
+    <workbookView windowWidth="27945" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常见格局（生克）" sheetId="1" r:id="rId1"/>
     <sheet name="十神关系" sheetId="2" r:id="rId2"/>
     <sheet name="墓" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+  <si>
+    <t>食伤驾杀</t>
+  </si>
   <si>
     <t>食伤生财</t>
   </si>
   <si>
+    <t>伤官见官</t>
+  </si>
+  <si>
     <t>枭印夺食</t>
   </si>
   <si>
@@ -52,219 +48,151 @@
     <t>印生比劫</t>
   </si>
   <si>
-    <t>食伤驾杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害</t>
+  </si>
+  <si>
+    <t>刑</t>
+  </si>
+  <si>
+    <t>三刑</t>
+  </si>
+  <si>
+    <t>相刑</t>
+  </si>
+  <si>
+    <t>自刑</t>
   </si>
   <si>
     <t>比劫-财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>食伤-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比劫-财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官杀-比劫</t>
+  </si>
+  <si>
+    <t>印枭-食伤</t>
+  </si>
+  <si>
+    <t>比劫-比劫</t>
+  </si>
+  <si>
+    <t>食伤-食伤</t>
+  </si>
+  <si>
+    <t>财-财</t>
+  </si>
+  <si>
+    <t>官杀-官杀</t>
+  </si>
+  <si>
+    <t>印枭-印枭</t>
   </si>
   <si>
     <t>比劫-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食伤-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>食伤-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比劫-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比劫-食伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>食伤-财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>官杀-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比劫-食伤-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>食伤-财-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财-官杀-比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>官杀-印枭-食伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印枭-比劫-财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比劫-比劫-比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比劫-印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比劫-比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食伤-食伤-食伤</t>
+  </si>
+  <si>
+    <t>财-财-财</t>
+  </si>
+  <si>
+    <t>官杀-官杀-官杀</t>
+  </si>
+  <si>
+    <t>印枭-印枭-印枭</t>
   </si>
   <si>
     <t>比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>食伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印枭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印-食伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财-财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官杀-比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食伤-食伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财-印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比劫-比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食伤-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官杀-官杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官杀-比劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印枭-食伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官见官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印-印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -272,19 +200,162 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="黑体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,30 +364,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFF0B9AE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0B9AE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -326,26 +583,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -354,30 +611,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -386,24 +632,277 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -411,77 +910,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF0B9AE"/>
+      <color rgb="00F0B9AE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -565,7 +1108,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -605,7 +1148,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -629,9 +1172,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -655,7 +1198,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -708,7 +1251,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -733,73 +1276,70 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="true"/>
+    <col min="2" max="3" width="14.75" customWidth="true"/>
+    <col min="4" max="4" width="11.875" customWidth="true"/>
+    <col min="5" max="5" width="18.125" customWidth="true"/>
+    <col min="6" max="6" width="11.875" customWidth="true"/>
+    <col min="7" max="8" width="13.875" customWidth="true"/>
+    <col min="9" max="9" width="12.75" customWidth="true"/>
+    <col min="10" max="10" width="14.25" customWidth="true"/>
+    <col min="11" max="11" width="16.375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="20.25" spans="1:10">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>12</v>
       </c>
@@ -831,7 +1371,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>13</v>
       </c>
@@ -863,7 +1403,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>14</v>
       </c>
@@ -895,7 +1435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>15</v>
       </c>
@@ -927,7 +1467,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>16</v>
       </c>
@@ -959,7 +1499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>17</v>
       </c>
@@ -991,7 +1531,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1023,7 +1563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>19</v>
       </c>
@@ -1055,7 +1595,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1087,7 +1627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1119,7 +1659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>22</v>
       </c>
@@ -1151,7 +1691,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>23</v>
       </c>
@@ -1183,7 +1723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1215,7 +1755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>25</v>
       </c>
@@ -1247,7 +1787,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>26</v>
       </c>
@@ -1279,7 +1819,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>27</v>
       </c>
@@ -1311,7 +1851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1344,255 +1884,297 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="true"/>
+    <col min="2" max="2" width="10.75" customWidth="true"/>
+    <col min="3" max="3" width="8.75" customWidth="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true"/>
+    <col min="5" max="5" width="10.875" customWidth="true"/>
+    <col min="6" max="7" width="10.75" customWidth="true"/>
+    <col min="8" max="8" width="6.75" customWidth="true"/>
+    <col min="9" max="9" width="10.75" customWidth="true"/>
+    <col min="10" max="10" width="11.125" customWidth="true"/>
+    <col min="11" max="11" width="8.75" customWidth="true"/>
+    <col min="12" max="15" width="10.75" customWidth="true"/>
+    <col min="16" max="16" width="8.75" customWidth="true"/>
+    <col min="17" max="19" width="10.75" customWidth="true"/>
+    <col min="20" max="20" width="8.75" customWidth="true"/>
+    <col min="21" max="22" width="10.75" customWidth="true"/>
+    <col min="23" max="24" width="8.75" customWidth="true"/>
+    <col min="25" max="25" width="10.75" customWidth="true"/>
+    <col min="26" max="26" width="16.375" customWidth="true"/>
+    <col min="27" max="28" width="14.125" customWidth="true"/>
+    <col min="29" max="29" width="16.375" customWidth="true"/>
+    <col min="30" max="34" width="14.125" customWidth="true"/>
+    <col min="35" max="35" width="16.375" customWidth="true"/>
+    <col min="36" max="36" width="10.75" customWidth="true"/>
+    <col min="37" max="38" width="8.75" customWidth="true"/>
+    <col min="39" max="41" width="10.75" customWidth="true"/>
+    <col min="45" max="45" width="11.125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="7" t="s">
+    <row r="1" s="2" customFormat="true" ht="20.25" spans="1:45">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="20.25" spans="1:45">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="4" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="27" customHeight="true" spans="1:45">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-    </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="4" t="s">
+      <c r="J3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4" t="s">
+      <c r="Y3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="5" t="s">
+      <c r="Z3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="AC3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="11" t="s">
+      <c r="AJ3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AP3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AR3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1704,8 +2286,32 @@
       <c r="AK4">
         <v>505</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL4">
+        <v>519</v>
+      </c>
+      <c r="AM4">
+        <v>533</v>
+      </c>
+      <c r="AN4">
+        <v>547</v>
+      </c>
+      <c r="AO4">
+        <v>561</v>
+      </c>
+      <c r="AP4">
+        <v>575</v>
+      </c>
+      <c r="AQ4">
+        <v>589</v>
+      </c>
+      <c r="AR4">
+        <v>603</v>
+      </c>
+      <c r="AS4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1817,8 +2423,32 @@
       <c r="AK5">
         <v>506</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL5">
+        <v>520</v>
+      </c>
+      <c r="AM5">
+        <v>534</v>
+      </c>
+      <c r="AN5">
+        <v>548</v>
+      </c>
+      <c r="AO5">
+        <v>562</v>
+      </c>
+      <c r="AP5">
+        <v>576</v>
+      </c>
+      <c r="AQ5">
+        <v>590</v>
+      </c>
+      <c r="AR5">
+        <v>604</v>
+      </c>
+      <c r="AS5">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1930,8 +2560,32 @@
       <c r="AK6">
         <v>507</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL6">
+        <v>521</v>
+      </c>
+      <c r="AM6">
+        <v>535</v>
+      </c>
+      <c r="AN6">
+        <v>549</v>
+      </c>
+      <c r="AO6">
+        <v>563</v>
+      </c>
+      <c r="AP6">
+        <v>577</v>
+      </c>
+      <c r="AQ6">
+        <v>591</v>
+      </c>
+      <c r="AR6">
+        <v>605</v>
+      </c>
+      <c r="AS6">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2043,8 +2697,32 @@
       <c r="AK7">
         <v>508</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7">
+        <v>522</v>
+      </c>
+      <c r="AM7">
+        <v>536</v>
+      </c>
+      <c r="AN7">
+        <v>550</v>
+      </c>
+      <c r="AO7">
+        <v>564</v>
+      </c>
+      <c r="AP7">
+        <v>578</v>
+      </c>
+      <c r="AQ7">
+        <v>592</v>
+      </c>
+      <c r="AR7">
+        <v>606</v>
+      </c>
+      <c r="AS7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2156,8 +2834,32 @@
       <c r="AK8">
         <v>509</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8">
+        <v>523</v>
+      </c>
+      <c r="AM8">
+        <v>537</v>
+      </c>
+      <c r="AN8">
+        <v>551</v>
+      </c>
+      <c r="AO8">
+        <v>565</v>
+      </c>
+      <c r="AP8">
+        <v>579</v>
+      </c>
+      <c r="AQ8">
+        <v>593</v>
+      </c>
+      <c r="AR8">
+        <v>607</v>
+      </c>
+      <c r="AS8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2269,8 +2971,32 @@
       <c r="AK9">
         <v>510</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL9">
+        <v>524</v>
+      </c>
+      <c r="AM9">
+        <v>538</v>
+      </c>
+      <c r="AN9">
+        <v>552</v>
+      </c>
+      <c r="AO9">
+        <v>566</v>
+      </c>
+      <c r="AP9">
+        <v>580</v>
+      </c>
+      <c r="AQ9">
+        <v>594</v>
+      </c>
+      <c r="AR9">
+        <v>608</v>
+      </c>
+      <c r="AS9">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2382,8 +3108,32 @@
       <c r="AK10">
         <v>511</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL10">
+        <v>525</v>
+      </c>
+      <c r="AM10">
+        <v>539</v>
+      </c>
+      <c r="AN10">
+        <v>553</v>
+      </c>
+      <c r="AO10">
+        <v>567</v>
+      </c>
+      <c r="AP10">
+        <v>581</v>
+      </c>
+      <c r="AQ10">
+        <v>595</v>
+      </c>
+      <c r="AR10">
+        <v>609</v>
+      </c>
+      <c r="AS10">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2495,8 +3245,32 @@
       <c r="AK11">
         <v>512</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL11">
+        <v>526</v>
+      </c>
+      <c r="AM11">
+        <v>540</v>
+      </c>
+      <c r="AN11">
+        <v>554</v>
+      </c>
+      <c r="AO11">
+        <v>568</v>
+      </c>
+      <c r="AP11">
+        <v>582</v>
+      </c>
+      <c r="AQ11">
+        <v>596</v>
+      </c>
+      <c r="AR11">
+        <v>610</v>
+      </c>
+      <c r="AS11">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2608,8 +3382,32 @@
       <c r="AK12">
         <v>513</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL12">
+        <v>527</v>
+      </c>
+      <c r="AM12">
+        <v>541</v>
+      </c>
+      <c r="AN12">
+        <v>555</v>
+      </c>
+      <c r="AO12">
+        <v>569</v>
+      </c>
+      <c r="AP12">
+        <v>583</v>
+      </c>
+      <c r="AQ12">
+        <v>597</v>
+      </c>
+      <c r="AR12">
+        <v>611</v>
+      </c>
+      <c r="AS12">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2721,8 +3519,32 @@
       <c r="AK13">
         <v>514</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL13">
+        <v>528</v>
+      </c>
+      <c r="AM13">
+        <v>542</v>
+      </c>
+      <c r="AN13">
+        <v>556</v>
+      </c>
+      <c r="AO13">
+        <v>570</v>
+      </c>
+      <c r="AP13">
+        <v>584</v>
+      </c>
+      <c r="AQ13">
+        <v>598</v>
+      </c>
+      <c r="AR13">
+        <v>612</v>
+      </c>
+      <c r="AS13">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2834,8 +3656,32 @@
       <c r="AK14">
         <v>515</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL14">
+        <v>529</v>
+      </c>
+      <c r="AM14">
+        <v>543</v>
+      </c>
+      <c r="AN14">
+        <v>557</v>
+      </c>
+      <c r="AO14">
+        <v>571</v>
+      </c>
+      <c r="AP14">
+        <v>585</v>
+      </c>
+      <c r="AQ14">
+        <v>599</v>
+      </c>
+      <c r="AR14">
+        <v>613</v>
+      </c>
+      <c r="AS14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2947,8 +3793,32 @@
       <c r="AK15">
         <v>516</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL15">
+        <v>530</v>
+      </c>
+      <c r="AM15">
+        <v>544</v>
+      </c>
+      <c r="AN15">
+        <v>558</v>
+      </c>
+      <c r="AO15">
+        <v>572</v>
+      </c>
+      <c r="AP15">
+        <v>586</v>
+      </c>
+      <c r="AQ15">
+        <v>600</v>
+      </c>
+      <c r="AR15">
+        <v>614</v>
+      </c>
+      <c r="AS15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3060,8 +3930,32 @@
       <c r="AK16">
         <v>517</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL16">
+        <v>531</v>
+      </c>
+      <c r="AM16">
+        <v>545</v>
+      </c>
+      <c r="AN16">
+        <v>559</v>
+      </c>
+      <c r="AO16">
+        <v>573</v>
+      </c>
+      <c r="AP16">
+        <v>587</v>
+      </c>
+      <c r="AQ16">
+        <v>601</v>
+      </c>
+      <c r="AR16">
+        <v>615</v>
+      </c>
+      <c r="AS16">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3173,56 +4067,83 @@
       <c r="AK17">
         <v>518</v>
       </c>
+      <c r="AL17">
+        <v>532</v>
+      </c>
+      <c r="AM17">
+        <v>546</v>
+      </c>
+      <c r="AN17">
+        <v>560</v>
+      </c>
+      <c r="AO17">
+        <v>574</v>
+      </c>
+      <c r="AP17">
+        <v>588</v>
+      </c>
+      <c r="AQ17">
+        <v>602</v>
+      </c>
+      <c r="AR17">
+        <v>616</v>
+      </c>
+      <c r="AS17">
+        <v>630</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="Z1:AK1"/>
+  <mergeCells count="7">
+    <mergeCell ref="Z1:AS1"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="P1:Y2"/>
     <mergeCell ref="K1:O2"/>
     <mergeCell ref="A1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="true"/>
+    <col min="2" max="2" width="14.125" customWidth="true"/>
+    <col min="3" max="3" width="13.75" customWidth="true"/>
+    <col min="4" max="4" width="14.375" customWidth="true"/>
+    <col min="5" max="5" width="16.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" ht="20.25" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3239,7 +4160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3256,7 +4177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3273,7 +4194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3290,7 +4211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3307,7 +4228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3324,7 +4245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3341,7 +4262,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3358,7 +4279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3375,7 +4296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3392,7 +4313,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3409,7 +4330,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3426,7 +4347,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3443,7 +4364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3460,7 +4381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3477,7 +4398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3494,7 +4415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3511,7 +4432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3528,7 +4449,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3545,7 +4466,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3562,7 +4483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3580,7 +4501,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/日运语句数据库.xlsx
+++ b/日运语句数据库.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\py\mypy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="常见格局（生克）" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>食伤驾杀</t>
   </si>
@@ -163,19 +168,25 @@
   </si>
   <si>
     <t>印枭</t>
+  </si>
+  <si>
+    <t>财被合走</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>印被合走，哈哈。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,38 +215,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,118 +224,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,210 +244,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -583,26 +271,26 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -611,19 +299,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,17 +320,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -650,259 +338,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -910,121 +356,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00F0B9AE"/>
+      <color rgb="FFF0B9AE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1148,7 +550,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1172,9 +574,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1198,7 +600,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1251,7 +653,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1276,39 +678,39 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="true"/>
-    <col min="2" max="3" width="14.75" customWidth="true"/>
-    <col min="4" max="4" width="11.875" customWidth="true"/>
-    <col min="5" max="5" width="18.125" customWidth="true"/>
-    <col min="6" max="6" width="11.875" customWidth="true"/>
-    <col min="7" max="8" width="13.875" customWidth="true"/>
-    <col min="9" max="9" width="12.75" customWidth="true"/>
-    <col min="10" max="10" width="14.25" customWidth="true"/>
-    <col min="11" max="11" width="16.375" customWidth="true"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="20.25" spans="1:10">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1339,12 +741,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>29</v>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C2">
         <v>46</v>
@@ -1371,13 +773,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
+      <c r="B3" s="18"/>
       <c r="C3">
         <v>47</v>
       </c>
@@ -1403,13 +803,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
+      <c r="B4" s="18"/>
       <c r="C4">
         <v>48</v>
       </c>
@@ -1435,13 +833,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
+      <c r="B5" s="18"/>
       <c r="C5">
         <v>49</v>
       </c>
@@ -1467,13 +863,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>33</v>
-      </c>
+      <c r="B6" s="18"/>
       <c r="C6">
         <v>50</v>
       </c>
@@ -1499,13 +893,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
+      <c r="B7" s="18"/>
       <c r="C7">
         <v>51</v>
       </c>
@@ -1531,13 +923,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
       <c r="C8">
         <v>52</v>
       </c>
@@ -1563,13 +952,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
       <c r="C9">
         <v>53</v>
       </c>
@@ -1595,13 +981,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>37</v>
-      </c>
       <c r="C10">
         <v>54</v>
       </c>
@@ -1627,13 +1010,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>38</v>
-      </c>
       <c r="C11">
         <v>55</v>
       </c>
@@ -1659,13 +1039,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12">
-        <v>39</v>
-      </c>
       <c r="C12">
         <v>56</v>
       </c>
@@ -1691,13 +1068,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23</v>
       </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
       <c r="C13">
         <v>57</v>
       </c>
@@ -1723,13 +1097,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
-      <c r="B14">
-        <v>41</v>
-      </c>
       <c r="C14">
         <v>58</v>
       </c>
@@ -1755,13 +1126,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
-      <c r="B15">
-        <v>42</v>
-      </c>
       <c r="C15">
         <v>59</v>
       </c>
@@ -1787,13 +1155,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>26</v>
       </c>
-      <c r="B16">
-        <v>43</v>
-      </c>
       <c r="C16">
         <v>60</v>
       </c>
@@ -1819,13 +1184,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>44</v>
-      </c>
       <c r="C17">
         <v>61</v>
       </c>
@@ -1851,13 +1213,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
-      <c r="B18">
-        <v>45</v>
-      </c>
       <c r="C18">
         <v>62</v>
       </c>
@@ -1884,297 +1243,296 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AI3"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="true"/>
-    <col min="2" max="2" width="10.75" customWidth="true"/>
-    <col min="3" max="3" width="8.75" customWidth="true"/>
-    <col min="4" max="4" width="10.75" customWidth="true"/>
-    <col min="5" max="5" width="10.875" customWidth="true"/>
-    <col min="6" max="7" width="10.75" customWidth="true"/>
-    <col min="8" max="8" width="6.75" customWidth="true"/>
-    <col min="9" max="9" width="10.75" customWidth="true"/>
-    <col min="10" max="10" width="11.125" customWidth="true"/>
-    <col min="11" max="11" width="8.75" customWidth="true"/>
-    <col min="12" max="15" width="10.75" customWidth="true"/>
-    <col min="16" max="16" width="8.75" customWidth="true"/>
-    <col min="17" max="19" width="10.75" customWidth="true"/>
-    <col min="20" max="20" width="8.75" customWidth="true"/>
-    <col min="21" max="22" width="10.75" customWidth="true"/>
-    <col min="23" max="24" width="8.75" customWidth="true"/>
-    <col min="25" max="25" width="10.75" customWidth="true"/>
-    <col min="26" max="26" width="16.375" customWidth="true"/>
-    <col min="27" max="28" width="14.125" customWidth="true"/>
-    <col min="29" max="29" width="16.375" customWidth="true"/>
-    <col min="30" max="34" width="14.125" customWidth="true"/>
-    <col min="35" max="35" width="16.375" customWidth="true"/>
-    <col min="36" max="36" width="10.75" customWidth="true"/>
-    <col min="37" max="38" width="8.75" customWidth="true"/>
-    <col min="39" max="41" width="10.75" customWidth="true"/>
-    <col min="45" max="45" width="11.125" customWidth="true"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="17" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="8.75" customWidth="1"/>
+    <col min="21" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="24" width="8.75" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="16.375" customWidth="1"/>
+    <col min="27" max="28" width="14.125" customWidth="1"/>
+    <col min="29" max="29" width="16.375" customWidth="1"/>
+    <col min="30" max="34" width="14.125" customWidth="1"/>
+    <col min="35" max="35" width="16.375" customWidth="1"/>
+    <col min="36" max="36" width="10.75" customWidth="1"/>
+    <col min="37" max="38" width="8.75" customWidth="1"/>
+    <col min="39" max="41" width="10.75" customWidth="1"/>
+    <col min="45" max="45" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="20.25" spans="1:45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:45" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="13" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="20.25" spans="1:45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="16" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+    </row>
+    <row r="2" spans="1:45" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16" t="s">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="15" t="s">
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="27" customHeight="true" spans="1:45">
-      <c r="A3" s="8" t="s">
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+    </row>
+    <row r="3" spans="1:45" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AE3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AF3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AH3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AK3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AL3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AM3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AQ3" s="17" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="17" t="s">
+      <c r="AR3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AS3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2211,8 +1569,8 @@
       <c r="L4">
         <v>155</v>
       </c>
-      <c r="M4">
-        <v>169</v>
+      <c r="M4" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="N4">
         <v>183</v>
@@ -2311,7 +1669,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2348,8 +1706,8 @@
       <c r="L5">
         <v>156</v>
       </c>
-      <c r="M5">
-        <v>170</v>
+      <c r="M5" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="N5">
         <v>184</v>
@@ -2448,7 +1806,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2485,9 +1843,6 @@
       <c r="L6">
         <v>157</v>
       </c>
-      <c r="M6">
-        <v>171</v>
-      </c>
       <c r="N6">
         <v>185</v>
       </c>
@@ -2585,7 +1940,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2622,9 +1977,6 @@
       <c r="L7">
         <v>158</v>
       </c>
-      <c r="M7">
-        <v>172</v>
-      </c>
       <c r="N7">
         <v>186</v>
       </c>
@@ -2722,7 +2074,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2759,9 +2111,6 @@
       <c r="L8">
         <v>159</v>
       </c>
-      <c r="M8">
-        <v>173</v>
-      </c>
       <c r="N8">
         <v>187</v>
       </c>
@@ -2859,7 +2208,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2896,9 +2245,6 @@
       <c r="L9">
         <v>160</v>
       </c>
-      <c r="M9">
-        <v>174</v>
-      </c>
       <c r="N9">
         <v>188</v>
       </c>
@@ -2996,7 +2342,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3033,9 +2379,6 @@
       <c r="L10">
         <v>161</v>
       </c>
-      <c r="M10">
-        <v>175</v>
-      </c>
       <c r="N10">
         <v>189</v>
       </c>
@@ -3133,7 +2476,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3170,9 +2513,6 @@
       <c r="L11">
         <v>162</v>
       </c>
-      <c r="M11">
-        <v>176</v>
-      </c>
       <c r="N11">
         <v>190</v>
       </c>
@@ -3270,7 +2610,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3307,9 +2647,6 @@
       <c r="L12">
         <v>163</v>
       </c>
-      <c r="M12">
-        <v>177</v>
-      </c>
       <c r="N12">
         <v>191</v>
       </c>
@@ -3407,7 +2744,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3444,9 +2781,6 @@
       <c r="L13">
         <v>164</v>
       </c>
-      <c r="M13">
-        <v>178</v>
-      </c>
       <c r="N13">
         <v>192</v>
       </c>
@@ -3544,7 +2878,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3581,9 +2915,6 @@
       <c r="L14">
         <v>165</v>
       </c>
-      <c r="M14">
-        <v>179</v>
-      </c>
       <c r="N14">
         <v>193</v>
       </c>
@@ -3681,7 +3012,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3718,9 +3049,6 @@
       <c r="L15">
         <v>166</v>
       </c>
-      <c r="M15">
-        <v>180</v>
-      </c>
       <c r="N15">
         <v>194</v>
       </c>
@@ -3818,7 +3146,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3855,9 +3183,6 @@
       <c r="L16">
         <v>167</v>
       </c>
-      <c r="M16">
-        <v>181</v>
-      </c>
       <c r="N16">
         <v>195</v>
       </c>
@@ -3955,7 +3280,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3992,9 +3317,6 @@
       <c r="L17">
         <v>168</v>
       </c>
-      <c r="M17">
-        <v>182</v>
-      </c>
       <c r="N17">
         <v>196</v>
       </c>
@@ -4094,39 +3416,38 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="Z1:AS1"/>
     <mergeCell ref="Z2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="P1:Y2"/>
-    <mergeCell ref="K1:O2"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="14.125" customWidth="true"/>
-    <col min="3" max="3" width="13.75" customWidth="true"/>
-    <col min="4" max="4" width="14.375" customWidth="true"/>
-    <col min="5" max="5" width="16.75" customWidth="true"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4143,7 +3464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4160,7 +3481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4177,7 +3498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4190,11 +3511,8 @@
       <c r="D4">
         <v>66</v>
       </c>
-      <c r="E4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4207,11 +3525,8 @@
       <c r="D5">
         <v>67</v>
       </c>
-      <c r="E5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4224,11 +3539,8 @@
       <c r="D6">
         <v>68</v>
       </c>
-      <c r="E6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4241,11 +3553,8 @@
       <c r="D7">
         <v>69</v>
       </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4258,11 +3567,8 @@
       <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4275,11 +3581,8 @@
       <c r="D9">
         <v>71</v>
       </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4292,11 +3595,8 @@
       <c r="D10">
         <v>72</v>
       </c>
-      <c r="E10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4309,11 +3609,8 @@
       <c r="D11">
         <v>73</v>
       </c>
-      <c r="E11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4326,11 +3623,8 @@
       <c r="D12">
         <v>74</v>
       </c>
-      <c r="E12">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4343,11 +3637,8 @@
       <c r="D13">
         <v>75</v>
       </c>
-      <c r="E13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4360,11 +3651,8 @@
       <c r="D14">
         <v>76</v>
       </c>
-      <c r="E14">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4377,11 +3665,8 @@
       <c r="D15">
         <v>77</v>
       </c>
-      <c r="E15">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4394,11 +3679,8 @@
       <c r="D16">
         <v>78</v>
       </c>
-      <c r="E16">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4411,11 +3693,8 @@
       <c r="D17">
         <v>79</v>
       </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4428,11 +3707,8 @@
       <c r="D18">
         <v>80</v>
       </c>
-      <c r="E18">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4445,11 +3721,8 @@
       <c r="D19">
         <v>81</v>
       </c>
-      <c r="E19">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4462,11 +3735,8 @@
       <c r="D20">
         <v>82</v>
       </c>
-      <c r="E20">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4479,11 +3749,8 @@
       <c r="D21">
         <v>83</v>
       </c>
-      <c r="E21">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4496,12 +3763,9 @@
       <c r="D22">
         <v>84</v>
       </c>
-      <c r="E22">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>